--- a/新增 Microsoft Excel 工作表.xlsx
+++ b/新增 Microsoft Excel 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>SDLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -887,6 +887,10 @@
   </si>
   <si>
     <t>SDLE0h0m.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALZ(分時段)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,11 +1910,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1070351888"/>
-        <c:axId val="1070363856"/>
+        <c:axId val="1314092256"/>
+        <c:axId val="1314104768"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1070351888"/>
+        <c:axId val="1314092256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2012,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1070363856"/>
+        <c:crossAx val="1314104768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2016,7 +2020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1070363856"/>
+        <c:axId val="1314104768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="220"/>
@@ -2125,7 +2129,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1070351888"/>
+        <c:crossAx val="1314092256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -3131,11 +3135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="749707296"/>
-        <c:axId val="749719264"/>
+        <c:axId val="1314099328"/>
+        <c:axId val="1314097152"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="749707296"/>
+        <c:axId val="1314099328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3233,7 +3237,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="749719264"/>
+        <c:crossAx val="1314097152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3241,7 +3245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="749719264"/>
+        <c:axId val="1314097152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="220"/>
@@ -3350,7 +3354,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="749707296"/>
+        <c:crossAx val="1314099328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -5284,11 +5288,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1071765328"/>
-        <c:axId val="1071766416"/>
+        <c:axId val="1314101504"/>
+        <c:axId val="1314102592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1071765328"/>
+        <c:axId val="1314101504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5386,7 +5390,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1071766416"/>
+        <c:crossAx val="1314102592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5394,7 +5398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1071766416"/>
+        <c:axId val="1314102592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="220"/>
@@ -5502,7 +5506,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1071765328"/>
+        <c:crossAx val="1314101504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -5632,6 +5636,1118 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALZ(分時段)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$KC$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="288"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1403031072"/>
+        <c:axId val="1403017472"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1403031072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1403017472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1403017472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="220"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1403031072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -6533,11 +7649,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1130609984"/>
-        <c:axId val="1130613792"/>
+        <c:axId val="1314092800"/>
+        <c:axId val="1314093344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1130609984"/>
+        <c:axId val="1314092800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6579,7 +7695,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130613792"/>
+        <c:crossAx val="1314093344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6587,7 +7703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1130613792"/>
+        <c:axId val="1314093344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -6639,7 +7755,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130609984"/>
+        <c:crossAx val="1314092800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6810,6 +7926,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8395,6 +9551,527 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8961,16 +10638,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8989,6 +10666,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8996,16 +10703,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9314,13 +11021,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KC2"/>
+  <dimension ref="A1:KC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:289" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11058,6 +12768,875 @@
       </c>
       <c r="KC2">
         <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:289" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+      <c r="C3">
+        <v>133</v>
+      </c>
+      <c r="D3">
+        <v>142</v>
+      </c>
+      <c r="E3">
+        <v>157</v>
+      </c>
+      <c r="F3">
+        <v>163</v>
+      </c>
+      <c r="G3">
+        <v>166</v>
+      </c>
+      <c r="H3">
+        <v>202</v>
+      </c>
+      <c r="I3">
+        <v>201</v>
+      </c>
+      <c r="J3">
+        <v>203</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>204</v>
+      </c>
+      <c r="M3">
+        <v>207</v>
+      </c>
+      <c r="N3">
+        <v>205</v>
+      </c>
+      <c r="O3">
+        <v>206</v>
+      </c>
+      <c r="P3">
+        <v>206</v>
+      </c>
+      <c r="Q3">
+        <v>207</v>
+      </c>
+      <c r="R3">
+        <v>207</v>
+      </c>
+      <c r="S3">
+        <v>209</v>
+      </c>
+      <c r="T3">
+        <v>208</v>
+      </c>
+      <c r="U3">
+        <v>208</v>
+      </c>
+      <c r="V3">
+        <v>208</v>
+      </c>
+      <c r="W3">
+        <v>209</v>
+      </c>
+      <c r="X3">
+        <v>210</v>
+      </c>
+      <c r="Y3">
+        <v>209</v>
+      </c>
+      <c r="Z3">
+        <v>211</v>
+      </c>
+      <c r="AA3">
+        <v>209</v>
+      </c>
+      <c r="AB3">
+        <v>208</v>
+      </c>
+      <c r="AC3">
+        <v>209</v>
+      </c>
+      <c r="AD3">
+        <v>209</v>
+      </c>
+      <c r="AE3">
+        <v>211</v>
+      </c>
+      <c r="AF3">
+        <v>209</v>
+      </c>
+      <c r="AG3">
+        <v>210</v>
+      </c>
+      <c r="AH3">
+        <v>210</v>
+      </c>
+      <c r="AI3">
+        <v>211</v>
+      </c>
+      <c r="AJ3">
+        <v>210</v>
+      </c>
+      <c r="AK3">
+        <v>210</v>
+      </c>
+      <c r="AL3">
+        <v>211</v>
+      </c>
+      <c r="AM3">
+        <v>209</v>
+      </c>
+      <c r="AN3">
+        <v>210</v>
+      </c>
+      <c r="AO3">
+        <v>209</v>
+      </c>
+      <c r="AP3">
+        <v>209</v>
+      </c>
+      <c r="AQ3">
+        <v>211</v>
+      </c>
+      <c r="AR3">
+        <v>209</v>
+      </c>
+      <c r="AS3">
+        <v>211</v>
+      </c>
+      <c r="AT3">
+        <v>208</v>
+      </c>
+      <c r="AU3">
+        <v>208</v>
+      </c>
+      <c r="AV3">
+        <v>211</v>
+      </c>
+      <c r="AW3">
+        <v>210</v>
+      </c>
+      <c r="AX3">
+        <v>211</v>
+      </c>
+      <c r="AY3">
+        <v>210</v>
+      </c>
+      <c r="AZ3">
+        <v>211</v>
+      </c>
+      <c r="BA3">
+        <v>210</v>
+      </c>
+      <c r="BB3">
+        <v>210</v>
+      </c>
+      <c r="BC3">
+        <v>208</v>
+      </c>
+      <c r="BD3">
+        <v>209</v>
+      </c>
+      <c r="BE3">
+        <v>208</v>
+      </c>
+      <c r="BF3">
+        <v>209</v>
+      </c>
+      <c r="BG3">
+        <v>208</v>
+      </c>
+      <c r="BH3">
+        <v>207</v>
+      </c>
+      <c r="BI3">
+        <v>208</v>
+      </c>
+      <c r="BJ3">
+        <v>209</v>
+      </c>
+      <c r="BK3">
+        <v>204</v>
+      </c>
+      <c r="BL3">
+        <v>206</v>
+      </c>
+      <c r="BM3">
+        <v>203</v>
+      </c>
+      <c r="BN3">
+        <v>205</v>
+      </c>
+      <c r="BO3">
+        <v>195</v>
+      </c>
+      <c r="BP3">
+        <v>200</v>
+      </c>
+      <c r="BQ3">
+        <v>202</v>
+      </c>
+      <c r="BR3">
+        <v>107</v>
+      </c>
+      <c r="BS3">
+        <v>179</v>
+      </c>
+      <c r="BT3">
+        <v>194</v>
+      </c>
+      <c r="BU3">
+        <v>197</v>
+      </c>
+      <c r="BV3">
+        <v>189</v>
+      </c>
+      <c r="BW3">
+        <v>186</v>
+      </c>
+      <c r="BX3">
+        <v>183</v>
+      </c>
+      <c r="BY3">
+        <v>194</v>
+      </c>
+      <c r="BZ3">
+        <v>182</v>
+      </c>
+      <c r="CA3">
+        <v>188</v>
+      </c>
+      <c r="CB3">
+        <v>182</v>
+      </c>
+      <c r="CC3">
+        <v>181</v>
+      </c>
+      <c r="CD3">
+        <v>186</v>
+      </c>
+      <c r="CE3">
+        <v>135</v>
+      </c>
+      <c r="CF3">
+        <v>139</v>
+      </c>
+      <c r="CG3">
+        <v>141</v>
+      </c>
+      <c r="CH3">
+        <v>181</v>
+      </c>
+      <c r="CI3">
+        <v>186</v>
+      </c>
+      <c r="CJ3">
+        <v>185</v>
+      </c>
+      <c r="CK3">
+        <v>185</v>
+      </c>
+      <c r="CL3">
+        <v>172</v>
+      </c>
+      <c r="CM3">
+        <v>172</v>
+      </c>
+      <c r="CN3">
+        <v>184</v>
+      </c>
+      <c r="CO3">
+        <v>177</v>
+      </c>
+      <c r="CP3">
+        <v>176</v>
+      </c>
+      <c r="CQ3">
+        <v>182</v>
+      </c>
+      <c r="CR3">
+        <v>178</v>
+      </c>
+      <c r="CS3">
+        <v>177</v>
+      </c>
+      <c r="CT3">
+        <v>178</v>
+      </c>
+      <c r="CU3">
+        <v>170</v>
+      </c>
+      <c r="CV3">
+        <v>122</v>
+      </c>
+      <c r="CW3">
+        <v>132</v>
+      </c>
+      <c r="CX3">
+        <v>134</v>
+      </c>
+      <c r="CY3">
+        <v>180</v>
+      </c>
+      <c r="CZ3">
+        <v>187</v>
+      </c>
+      <c r="DA3">
+        <v>189</v>
+      </c>
+      <c r="DB3">
+        <v>178</v>
+      </c>
+      <c r="DC3">
+        <v>173</v>
+      </c>
+      <c r="DD3">
+        <v>167</v>
+      </c>
+      <c r="DE3">
+        <v>169</v>
+      </c>
+      <c r="DF3">
+        <v>166</v>
+      </c>
+      <c r="DG3">
+        <v>168</v>
+      </c>
+      <c r="DH3">
+        <v>170</v>
+      </c>
+      <c r="DI3">
+        <v>177</v>
+      </c>
+      <c r="DJ3">
+        <v>172</v>
+      </c>
+      <c r="DK3">
+        <v>168</v>
+      </c>
+      <c r="DL3">
+        <v>186</v>
+      </c>
+      <c r="DM3">
+        <v>179</v>
+      </c>
+      <c r="DN3">
+        <v>179</v>
+      </c>
+      <c r="DO3">
+        <v>184</v>
+      </c>
+      <c r="DP3">
+        <v>186</v>
+      </c>
+      <c r="DQ3">
+        <v>173</v>
+      </c>
+      <c r="DR3">
+        <v>174</v>
+      </c>
+      <c r="DS3">
+        <v>192</v>
+      </c>
+      <c r="DT3">
+        <v>187</v>
+      </c>
+      <c r="DU3">
+        <v>172</v>
+      </c>
+      <c r="DV3">
+        <v>179</v>
+      </c>
+      <c r="DW3">
+        <v>190</v>
+      </c>
+      <c r="DX3">
+        <v>187</v>
+      </c>
+      <c r="DY3">
+        <v>189</v>
+      </c>
+      <c r="DZ3">
+        <v>192</v>
+      </c>
+      <c r="EA3">
+        <v>198</v>
+      </c>
+      <c r="EB3">
+        <v>188</v>
+      </c>
+      <c r="EC3">
+        <v>191</v>
+      </c>
+      <c r="ED3">
+        <v>186</v>
+      </c>
+      <c r="EE3">
+        <v>187</v>
+      </c>
+      <c r="EF3">
+        <v>186</v>
+      </c>
+      <c r="EG3">
+        <v>192</v>
+      </c>
+      <c r="EH3">
+        <v>190</v>
+      </c>
+      <c r="EI3">
+        <v>192</v>
+      </c>
+      <c r="EJ3">
+        <v>183</v>
+      </c>
+      <c r="EK3">
+        <v>188</v>
+      </c>
+      <c r="EL3">
+        <v>196</v>
+      </c>
+      <c r="EM3">
+        <v>194</v>
+      </c>
+      <c r="EN3">
+        <v>195</v>
+      </c>
+      <c r="EO3">
+        <v>187</v>
+      </c>
+      <c r="EP3">
+        <v>193</v>
+      </c>
+      <c r="EQ3">
+        <v>185</v>
+      </c>
+      <c r="ER3">
+        <v>184</v>
+      </c>
+      <c r="ES3">
+        <v>184</v>
+      </c>
+      <c r="ET3">
+        <v>189</v>
+      </c>
+      <c r="EU3">
+        <v>189</v>
+      </c>
+      <c r="EV3">
+        <v>186</v>
+      </c>
+      <c r="EW3">
+        <v>181</v>
+      </c>
+      <c r="EX3">
+        <v>192</v>
+      </c>
+      <c r="EY3">
+        <v>179</v>
+      </c>
+      <c r="EZ3">
+        <v>187</v>
+      </c>
+      <c r="FA3">
+        <v>190</v>
+      </c>
+      <c r="FB3">
+        <v>186</v>
+      </c>
+      <c r="FC3">
+        <v>192</v>
+      </c>
+      <c r="FD3">
+        <v>191</v>
+      </c>
+      <c r="FE3">
+        <v>186</v>
+      </c>
+      <c r="FF3">
+        <v>186</v>
+      </c>
+      <c r="FG3">
+        <v>186</v>
+      </c>
+      <c r="FH3">
+        <v>174</v>
+      </c>
+      <c r="FI3">
+        <v>181</v>
+      </c>
+      <c r="FJ3">
+        <v>183</v>
+      </c>
+      <c r="FK3">
+        <v>184</v>
+      </c>
+      <c r="FL3">
+        <v>180</v>
+      </c>
+      <c r="FM3">
+        <v>177</v>
+      </c>
+      <c r="FN3">
+        <v>180</v>
+      </c>
+      <c r="FO3">
+        <v>175</v>
+      </c>
+      <c r="FP3">
+        <v>176</v>
+      </c>
+      <c r="FQ3">
+        <v>174</v>
+      </c>
+      <c r="FR3">
+        <v>174</v>
+      </c>
+      <c r="FS3">
+        <v>185</v>
+      </c>
+      <c r="FT3">
+        <v>175</v>
+      </c>
+      <c r="FU3">
+        <v>169</v>
+      </c>
+      <c r="FV3">
+        <v>179</v>
+      </c>
+      <c r="FW3">
+        <v>172</v>
+      </c>
+      <c r="FX3">
+        <v>179</v>
+      </c>
+      <c r="FY3">
+        <v>180</v>
+      </c>
+      <c r="FZ3">
+        <v>178</v>
+      </c>
+      <c r="GA3">
+        <v>177</v>
+      </c>
+      <c r="GB3">
+        <v>174</v>
+      </c>
+      <c r="GC3">
+        <v>179</v>
+      </c>
+      <c r="GD3">
+        <v>182</v>
+      </c>
+      <c r="GE3">
+        <v>180</v>
+      </c>
+      <c r="GF3">
+        <v>184</v>
+      </c>
+      <c r="GG3">
+        <v>184</v>
+      </c>
+      <c r="GH3">
+        <v>180</v>
+      </c>
+      <c r="GI3">
+        <v>177</v>
+      </c>
+      <c r="GJ3">
+        <v>177</v>
+      </c>
+      <c r="GK3">
+        <v>181</v>
+      </c>
+      <c r="GL3">
+        <v>180</v>
+      </c>
+      <c r="GM3">
+        <v>174</v>
+      </c>
+      <c r="GN3">
+        <v>180</v>
+      </c>
+      <c r="GO3">
+        <v>181</v>
+      </c>
+      <c r="GP3">
+        <v>174</v>
+      </c>
+      <c r="GQ3">
+        <v>177</v>
+      </c>
+      <c r="GR3">
+        <v>182</v>
+      </c>
+      <c r="GS3">
+        <v>172</v>
+      </c>
+      <c r="GT3">
+        <v>173</v>
+      </c>
+      <c r="GU3">
+        <v>173</v>
+      </c>
+      <c r="GV3">
+        <v>177</v>
+      </c>
+      <c r="GW3">
+        <v>180</v>
+      </c>
+      <c r="GX3">
+        <v>179</v>
+      </c>
+      <c r="GY3">
+        <v>167</v>
+      </c>
+      <c r="GZ3">
+        <v>180</v>
+      </c>
+      <c r="HA3">
+        <v>180</v>
+      </c>
+      <c r="HB3">
+        <v>174</v>
+      </c>
+      <c r="HC3">
+        <v>173</v>
+      </c>
+      <c r="HD3">
+        <v>167</v>
+      </c>
+      <c r="HE3">
+        <v>166</v>
+      </c>
+      <c r="HF3">
+        <v>172</v>
+      </c>
+      <c r="HG3">
+        <v>169</v>
+      </c>
+      <c r="HH3">
+        <v>169</v>
+      </c>
+      <c r="HI3">
+        <v>175</v>
+      </c>
+      <c r="HJ3">
+        <v>169</v>
+      </c>
+      <c r="HK3">
+        <v>176</v>
+      </c>
+      <c r="HL3">
+        <v>167</v>
+      </c>
+      <c r="HM3">
+        <v>165</v>
+      </c>
+      <c r="HN3">
+        <v>161</v>
+      </c>
+      <c r="HO3">
+        <v>174</v>
+      </c>
+      <c r="HP3">
+        <v>164</v>
+      </c>
+      <c r="HQ3">
+        <v>169</v>
+      </c>
+      <c r="HR3">
+        <v>163</v>
+      </c>
+      <c r="HS3">
+        <v>96</v>
+      </c>
+      <c r="HT3">
+        <v>101</v>
+      </c>
+      <c r="HU3">
+        <v>100</v>
+      </c>
+      <c r="HV3">
+        <v>154</v>
+      </c>
+      <c r="HW3">
+        <v>168</v>
+      </c>
+      <c r="HX3">
+        <v>168</v>
+      </c>
+      <c r="HY3">
+        <v>160</v>
+      </c>
+      <c r="HZ3">
+        <v>147</v>
+      </c>
+      <c r="IA3">
+        <v>145</v>
+      </c>
+      <c r="IB3">
+        <v>162</v>
+      </c>
+      <c r="IC3">
+        <v>145</v>
+      </c>
+      <c r="ID3">
+        <v>163</v>
+      </c>
+      <c r="IE3">
+        <v>157</v>
+      </c>
+      <c r="IF3">
+        <v>151</v>
+      </c>
+      <c r="IG3">
+        <v>164</v>
+      </c>
+      <c r="IH3">
+        <v>158</v>
+      </c>
+      <c r="II3">
+        <v>159</v>
+      </c>
+      <c r="IJ3">
+        <v>170</v>
+      </c>
+      <c r="IK3">
+        <v>169</v>
+      </c>
+      <c r="IL3">
+        <v>167</v>
+      </c>
+      <c r="IM3">
+        <v>165</v>
+      </c>
+      <c r="IN3">
+        <v>170</v>
+      </c>
+      <c r="IO3">
+        <v>179</v>
+      </c>
+      <c r="IP3">
+        <v>161</v>
+      </c>
+      <c r="IQ3">
+        <v>162</v>
+      </c>
+      <c r="IR3">
+        <v>176</v>
+      </c>
+      <c r="IS3">
+        <v>168</v>
+      </c>
+      <c r="IT3">
+        <v>183</v>
+      </c>
+      <c r="IU3">
+        <v>186</v>
+      </c>
+      <c r="IV3">
+        <v>174</v>
+      </c>
+      <c r="IW3">
+        <v>170</v>
+      </c>
+      <c r="IX3">
+        <v>162</v>
+      </c>
+      <c r="IY3">
+        <v>184</v>
+      </c>
+      <c r="IZ3">
+        <v>181</v>
+      </c>
+      <c r="JA3">
+        <v>177</v>
+      </c>
+      <c r="JB3">
+        <v>174</v>
+      </c>
+      <c r="JC3">
+        <v>181</v>
+      </c>
+      <c r="JD3">
+        <v>182</v>
+      </c>
+      <c r="JE3">
+        <v>177</v>
+      </c>
+      <c r="JF3">
+        <v>177</v>
+      </c>
+      <c r="JG3">
+        <v>171</v>
+      </c>
+      <c r="JH3">
+        <v>173</v>
+      </c>
+      <c r="JI3">
+        <v>175</v>
+      </c>
+      <c r="JJ3">
+        <v>183</v>
+      </c>
+      <c r="JK3">
+        <v>193</v>
+      </c>
+      <c r="JL3">
+        <v>176</v>
+      </c>
+      <c r="JM3">
+        <v>174</v>
+      </c>
+      <c r="JN3">
+        <v>50</v>
+      </c>
+      <c r="JO3">
+        <v>164</v>
+      </c>
+      <c r="JP3">
+        <v>183</v>
+      </c>
+      <c r="JQ3">
+        <v>186</v>
+      </c>
+      <c r="JR3">
+        <v>183</v>
+      </c>
+      <c r="JS3">
+        <v>182</v>
+      </c>
+      <c r="JT3">
+        <v>182</v>
+      </c>
+      <c r="JU3">
+        <v>175</v>
+      </c>
+      <c r="JV3">
+        <v>176</v>
+      </c>
+      <c r="JW3">
+        <v>185</v>
+      </c>
+      <c r="JX3">
+        <v>184</v>
+      </c>
+      <c r="JY3">
+        <v>176</v>
+      </c>
+      <c r="JZ3">
+        <v>183</v>
+      </c>
+      <c r="KA3">
+        <v>190</v>
+      </c>
+      <c r="KB3">
+        <v>192</v>
+      </c>
+      <c r="KC3">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -11072,8 +13651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
